--- a/data til pbi/kollektiv/arkiv/2023 Punktlighet versjon3.xlsx
+++ b/data til pbi/kollektiv/arkiv/2023 Punktlighet versjon3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk.sharepoint.com/sites/SMM-SeksjonKollektivogmobilitet/Delte dokumenter/General/Statistikk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/bjorn_gard_aasebo_vestfoldfylke_no/Documents/Filer/Marked/RappGrenland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9DFF6690-8E7C-400C-8C64-015180E5ACDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{2833A468-8F84-4CD1-900B-621B6327ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F17C46-50EB-4A3D-BBAE-6D5E63286ED7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>Ikke i rute</t>
   </si>
   <si>
-    <t>Mål 2021</t>
-  </si>
-  <si>
     <t>Endring %</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>P10</t>
+  </si>
+  <si>
+    <t>Mål 2023</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -797,20 +797,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="3" applyBorder="1"/>
@@ -821,47 +820,45 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -880,10 +877,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="God" xfId="3" builtinId="26"/>
@@ -1306,28 +1304,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,28 +1467,28 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.32999999999999996</c:v>
+                  <c:v>0.31999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.42000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43999999999999995</c:v>
+                  <c:v>0.42999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43999999999999995</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38</c:v>
+                  <c:v>0.32999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,10 +1869,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,31 +2226,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,31 +2380,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.31999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.45999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.31999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.41000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.58000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.20999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2772,10 +2770,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,31 +3122,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.80500000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,31 +3276,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.32999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.43000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.31999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.19499999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,10 +3661,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.80500000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4015,31 +4013,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,31 +4167,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.22999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.21999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.20999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.22999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>6.9999999999999951E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4574,10 +4572,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,31 +4929,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,31 +5083,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.32999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.43000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.43999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.19999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5499,10 +5497,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5851,31 +5849,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6005,31 +6003,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.32999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.43999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.43999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.18999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6479,7 +6477,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>0.61250000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6767,7 +6765,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.81</c:v>
+                  <c:v>0.80541666666666645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7339,10 +7337,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7701,31 +7699,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7855,31 +7853,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.31999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.45999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.20999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8266,10 +8264,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8618,31 +8616,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8772,31 +8770,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.42000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.41000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.66999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.43999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.20999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9178,10 +9176,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9546,10 +9544,10 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9700,10 +9698,10 @@
                   <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.22999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10091,10 +10089,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12206,31 +12204,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12360,31 +12358,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.45999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.45999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.41000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.66999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.41000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.19999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12750,10 +12748,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13150,31 +13148,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13304,31 +13302,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.45999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.42000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.20999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34433,686 +34431,886 @@
   <dimension ref="A2:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="28.3" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="77" t="s">
+      <c r="N5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="76" t="s">
+      <c r="O5" s="73" t="s">
         <v>15</v>
       </c>
       <c r="P5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="79"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="21">
+        <v>17</v>
+      </c>
+      <c r="B7" s="20">
         <v>0.65</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.69</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21">
+      <c r="D7" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="N7" s="20">
         <f>ROUNDUP((AVERAGE(B7:K7)),2)</f>
-        <v>0.67</v>
-      </c>
-      <c r="O7" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="O7" s="21">
         <f>1-N7</f>
-        <v>0.32999999999999996</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="21">
+        <v>18</v>
+      </c>
+      <c r="B8" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.61</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21">
+      <c r="D8" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.53</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="N8" s="20">
         <f>ROUNDUP((AVERAGE(B8:K8)),2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <f t="shared" ref="O8:O14" si="0">1-N8</f>
         <v>0.42000000000000004</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="21">
+        <v>19</v>
+      </c>
+      <c r="B9" s="20">
         <v>0.53</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="D9" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.53</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.53</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" ref="N9:N14" si="1">ROUNDUP((AVERAGE(B9:K9)),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O9" s="22">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="O9" s="21">
         <f t="shared" si="0"/>
-        <v>0.43999999999999995</v>
+        <v>0.42999999999999994</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="21">
+        <v>20</v>
+      </c>
+      <c r="B10" s="20">
         <v>0.53</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21">
+      <c r="D10" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.78</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O10" s="22">
+        <v>0.61</v>
+      </c>
+      <c r="O10" s="21">
         <f t="shared" si="0"/>
-        <v>0.43999999999999995</v>
+        <v>0.39</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="21">
+        <v>21</v>
+      </c>
+      <c r="B11" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.66</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21">
+      <c r="D11" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N11" s="20">
         <f t="shared" si="1"/>
-        <v>0.62</v>
-      </c>
-      <c r="O11" s="22">
+        <v>0.67</v>
+      </c>
+      <c r="O11" s="21">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="21">
+        <v>22</v>
+      </c>
+      <c r="B12" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.64</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21">
+      <c r="D12" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="N12" s="20">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="O12" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="O12" s="21">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="21">
+        <v>23</v>
+      </c>
+      <c r="B13" s="20">
         <v>0.64</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.75</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21">
+      <c r="D13" s="20">
+        <v>0.69</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="N13" s="20">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="O13" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="O13" s="21">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="21">
+        <v>33</v>
+      </c>
+      <c r="B14" s="20">
         <v>0.4</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.49</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21">
+      <c r="D14" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.39</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.42</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.48</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="N14" s="20">
         <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="O14" s="22">
+        <v>0.46</v>
+      </c>
+      <c r="O14" s="21">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="15"/>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="13"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:19" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="79">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C16" s="79">
+        <v>0.64</v>
+      </c>
+      <c r="D16" s="79">
+        <v>0.59</v>
+      </c>
+      <c r="E16" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="82">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="80">
+        <v>0.62</v>
+      </c>
+      <c r="H16" s="80">
+        <v>0.77</v>
+      </c>
+      <c r="I16" s="80">
+        <v>0.63</v>
+      </c>
+      <c r="J16" s="80">
+        <v>0.61</v>
+      </c>
+      <c r="K16" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="L16" s="80">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M16" s="80">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N16" s="79">
+        <f>AVERAGE(B16:M16)</f>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O16" s="79">
+        <f>1-N16</f>
+        <v>0.38749999999999996</v>
+      </c>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="82">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C16" s="82">
-        <v>0.64</v>
-      </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="82">
-        <f>AVERAGE(B16:M16)</f>
-        <v>0.61</v>
-      </c>
-      <c r="O16" s="82">
-        <f>1-N16</f>
-        <v>0.39</v>
-      </c>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="17"/>
+      <c r="B17" s="81">
+        <v>0.78</v>
+      </c>
+      <c r="C17" s="80">
+        <v>0.84</v>
+      </c>
+      <c r="D17" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="80">
+        <v>0.79</v>
+      </c>
+      <c r="F17" s="80">
+        <v>0.79</v>
+      </c>
+      <c r="G17" s="80">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H17" s="80">
+        <v>0.93</v>
+      </c>
+      <c r="I17" s="80">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="80">
+        <v>0.81</v>
+      </c>
+      <c r="K17" s="80">
+        <v>0.79</v>
+      </c>
+      <c r="L17" s="80">
+        <v>0.77</v>
+      </c>
+      <c r="M17" s="80">
+        <v>0.76</v>
+      </c>
+      <c r="N17" s="79">
+        <f>AVERAGE(B17:M17)</f>
+        <v>0.80541666666666645</v>
+      </c>
+      <c r="O17" s="79">
+        <f>1-N17</f>
+        <v>0.19458333333333355</v>
+      </c>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="18"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="84">
-        <v>0.78</v>
-      </c>
-      <c r="C17" s="83">
-        <v>0.84</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="82">
-        <f>AVERAGE(B17:M17)</f>
-        <v>0.81</v>
-      </c>
-      <c r="O17" s="82">
-        <f>1-N17</f>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="19"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="28"/>
+      <c r="B42" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="22">
         <f>B16</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>0.7</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="22">
         <f>B17</f>
         <v>0.78</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <f>C16</f>
         <v>0.64</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="22">
         <v>0.68</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="22">
         <f>C17</f>
         <v>0.84</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="24">
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <f>D16</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="23">
+        <v>0.59</v>
+      </c>
+      <c r="C45" s="22">
         <v>0.63</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="22">
         <f>D17</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E45" s="24">
         <v>0.92</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <f>E16</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="C46" s="22">
         <v>0.61</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="22">
         <f>E17</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="E46" s="24">
         <v>0.93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="23">
         <v>0.6</v>
       </c>
-      <c r="D47" s="23">
+      <c r="C47" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D47" s="22">
         <f>F17</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="E47" s="24">
         <v>0.93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <f>G16</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="23">
+        <v>0.62</v>
+      </c>
+      <c r="C48" s="22">
         <v>0.61</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="22">
         <f>G17</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="25">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E48" s="24">
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="C49" s="22">
         <v>0.78</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <f>H17</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="25">
+        <v>0.93</v>
+      </c>
+      <c r="E49" s="24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="22">
         <f>I16</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="C50" s="22">
         <v>0.65</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <f>I17</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E50" s="24">
         <v>0.79</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="22">
         <f>J16</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="23">
+        <v>0.61</v>
+      </c>
+      <c r="C51" s="22">
         <v>0.63</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="22">
         <f>J17</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="25">
+        <v>0.81</v>
+      </c>
+      <c r="E51" s="24">
         <v>0.77</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <f>K16</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="C52" s="22">
         <v>0.65</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="22">
         <f>K17</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="25">
         <v>0.79</v>
       </c>
+      <c r="E52" s="24">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <f>L16</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C53" s="22">
         <v>0.6</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="22">
         <f>L17</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="E53" s="24">
         <v>0.76</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="22">
         <f>M16</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C54" s="22">
         <v>0.59</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="22">
         <f>M17</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="E54" s="24">
         <v>0.82</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="26">
         <f>N16</f>
-        <v>0.61</v>
-      </c>
-      <c r="C55" s="27">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="C55" s="26">
         <v>0.64416666666666667</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="26">
         <f>N17</f>
-        <v>0.81</v>
-      </c>
-      <c r="E55" s="28">
+        <v>0.80541666666666645</v>
+      </c>
+      <c r="E55" s="27">
         <v>0.85583333333333345</v>
       </c>
     </row>
@@ -35134,158 +35332,158 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!J7</f>
+        <v>0.67</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!J7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!J8</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!J9</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!J8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!J10</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!J11</f>
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!J9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!J12</f>
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!J14</f>
+        <v>0.45</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!J10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B51</f>
+        <v>0.61</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!J11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D51</f>
+        <v>0.81</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!J12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!J14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B51</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D51</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -35303,160 +35501,160 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!K7</f>
+        <v>0.68</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!K7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!K8</f>
+        <v>0.53</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.47</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!K9</f>
+        <v>0.54</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!K8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!K10</f>
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!K11</f>
+        <v>0.64</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!K9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!K12</f>
+        <v>0.61</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!K14</f>
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!K10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B52</f>
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!K11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D52</f>
+        <v>0.79</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!K12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!K14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B52</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D52</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -35474,158 +35672,158 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!L7</f>
+        <v>0.61</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.39</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!L7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!L8</f>
+        <v>0.51</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.49</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!L9</f>
+        <v>0.51</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!L8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!L10</f>
+        <v>0.51</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!L11</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!L9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!L12</f>
+        <v>0.59</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!L14</f>
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!L10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B53</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!L11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D52</f>
+        <v>0.79</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!L12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!L14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B53</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D52</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -35643,151 +35841,151 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="64">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
         <v>0.82</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
         <f>D1-B1</f>
         <v>0.18000000000000005</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20">
         <v>0.62</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <f t="shared" ref="C2:C10" si="0">D2-B2</f>
         <v>0.38</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
         <v>0.75</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
         <v>0.63</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
         <v>0.7</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
         <v>0.73</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
         <v>0.85</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B54</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C9" s="52">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D9" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20">
-        <f>Total!B54</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
+      <c r="B10" s="51">
+        <f>Total!D53</f>
+        <v>0.77</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D53</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -35805,158 +36003,158 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="32">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="31">
         <f>Total!B7</f>
         <v>0.65</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
         <f>D1-B1</f>
         <v>0.35</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="34">
         <f>Total!B8</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <f t="shared" ref="C2:C7" si="0">D2-B2</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="34">
         <f>Total!B9</f>
         <v>0.53</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="34">
         <f>Total!B10</f>
         <v>0.53</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="34">
         <f>Total!B11</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="34">
         <f>Total!B12</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="37">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="36">
         <f>Total!B14</f>
         <v>0.4</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="46">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="44">
         <f>Total!B43</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <f>D9-B9</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="48">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="46">
         <f>Total!D43</f>
         <v>0.78</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <f>D10-B10</f>
         <v>0.21999999999999997</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>1</v>
       </c>
     </row>
@@ -35974,158 +36172,158 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="64">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
         <f>Total!C7</f>
         <v>0.69</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
         <f>D1-B1</f>
         <v>0.31000000000000005</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20">
         <f>Total!C8</f>
         <v>0.61</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <f t="shared" ref="C2:C7" si="0">D2-B2</f>
         <v>0.39</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
         <f>Total!C9</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
         <f>Total!C10</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
         <f>Total!C11</f>
         <v>0.66</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f t="shared" si="0"/>
         <v>0.33999999999999997</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
         <f>Total!C12</f>
         <v>0.64</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
         <f>Total!C14</f>
         <v>0.49</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="20">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19">
         <f>Total!B44</f>
         <v>0.64</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="52">
         <f>D9-B9</f>
         <v>0.36</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
         <f>Total!D44</f>
         <v>0.84</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="52">
         <f>D10-B10</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -36143,158 +36341,158 @@
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!D7</f>
+        <v>0.66</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!D7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!D8</f>
+        <v>0.54</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!D9</f>
+        <v>0.54</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!D8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!D10</f>
+        <v>0.59</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!D11</f>
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!D9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!D12</f>
+        <v>0.62</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!D14</f>
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!D10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B45</f>
+        <v>0.59</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!D11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D45</f>
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!D12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!D14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B45</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D45</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -36312,158 +36510,158 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!E7</f>
+        <v>0.66</v>
+      </c>
+      <c r="C1" s="62">
+        <f>D1-B1</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!E7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="64">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!E8</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="20">
+        <f t="shared" ref="C2:C7" si="0">D2-B2</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!E9</f>
+        <v>0.54</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!E8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="21">
-        <f t="shared" ref="C2:C7" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!E10</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!E11</f>
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!E9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="21">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!E12</f>
+        <v>0.62</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!E14</f>
+        <v>0.39</v>
+      </c>
+      <c r="C7" s="66">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!E10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
-        <f t="shared" si="0"/>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B46</f>
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="19">
+        <f>D9-B9</f>
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!E11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!E12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!E14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="69">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B46</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="20">
-        <f>D9-B9</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
         <f>Total!D46</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="C10" s="19">
         <f>D10-B10</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -36481,158 +36679,158 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!F7</f>
+        <v>0.68</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!F7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!F8</f>
+        <v>0.54</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!F9</f>
+        <v>0.53</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!F8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!F10</f>
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!F11</f>
+        <v>0.68</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!F9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!F12</f>
+        <v>0.59</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!F14</f>
+        <v>0.42</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!F10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B47</f>
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!F11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D47</f>
+        <v>0.79</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!F12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!F14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B47</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D47</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -36650,158 +36848,158 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!G7</f>
+        <v>0.67</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!G7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!G8</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!G9</f>
+        <v>0.53</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!G8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!G10</f>
+        <v>0.64</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!G11</f>
+        <v>0.68</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!G9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!G12</f>
+        <v>0.63</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!G14</f>
+        <v>0.48</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!G10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B48</f>
+        <v>0.62</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!G11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D48</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!G12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!G14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B48</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D48</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.19499999999999995</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -36819,158 +37017,158 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!H7</f>
+        <v>0.77</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!H7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!H8</f>
+        <v>0.76</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.24</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!H9</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!H8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!H10</f>
+        <v>0.78</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!H11</f>
+        <v>0.79</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!H9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!H12</f>
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!H14</f>
+        <v>0.73</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!H10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B49</f>
+        <v>0.77</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!H11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D49</f>
+        <v>0.93</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!H12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!H14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B49</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D49</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -36988,158 +37186,158 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="62">
+        <f>Total!I7</f>
+        <v>0.67</v>
+      </c>
+      <c r="C1" s="32">
+        <f>D1-B1</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="D1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64">
-        <f>Total!I7</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="33">
-        <f>D1-B1</f>
+      <c r="B2" s="20">
+        <f>Total!I8</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C2" s="21">
+        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="D2" s="35">
         <v>1</v>
       </c>
-      <c r="D1" s="34">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20">
+        <f>Total!I9</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" si="0"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Total!I8</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="22">
-        <f t="shared" ref="C2:C10" si="0">D2-B2</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Total!I10</f>
+        <v>0.61</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="36">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20">
+        <f>Total!I11</f>
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D5" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="21">
-        <f>Total!I9</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Total!I12</f>
+        <v>0.66</v>
+      </c>
+      <c r="C6" s="21">
         <f t="shared" si="0"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="66">
+        <f>Total!I14</f>
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="21">
-        <f>Total!I10</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="22">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <f>Total!B50</f>
+        <v>0.63</v>
+      </c>
+      <c r="C9" s="52">
         <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="D9" s="53">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="21">
-        <f>Total!I11</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="51">
+        <f>Total!D50</f>
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="52">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <f>Total!I12</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="69">
-        <f>Total!I14</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="20">
-        <f>Total!B50</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="53">
-        <f>Total!D50</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="55">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D10" s="53">
         <v>1</v>
       </c>
     </row>
@@ -37152,20 +37350,20 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1be84928-a867-465e-b2ee-3fc273237fa1">
+    <TaxCatchAll xmlns="478e6b58-aec7-4dc3-9f41-cb49fd51aa76" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de218069-9b18-4834-8a42-87538bc414b8">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="478e6b58-aec7-4dc3-9f41-cb49fd51aa76" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100436D26F2A0AFCF43B1608D8EE29A8EA1" ma:contentTypeVersion="13" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e8fe4c99a69ab9465fd446dd06a4b684">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1be84928-a867-465e-b2ee-3fc273237fa1" xmlns:ns3="478e6b58-aec7-4dc3-9f41-cb49fd51aa76" xmlns:ns4="809d16aa-08b5-4848-9f7f-cf9d38bd550c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33e9b753cc96dedaf42c64f23e9d7969" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="1be84928-a867-465e-b2ee-3fc273237fa1"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001898DE31E6781040974FAF2B6226B070" ma:contentTypeVersion="17" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="8210ab889ee5475f8279815924805e7a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de218069-9b18-4834-8a42-87538bc414b8" xmlns:ns3="346015c6-8778-4c47-bc51-98fcc3d8f0cc" xmlns:ns4="478e6b58-aec7-4dc3-9f41-cb49fd51aa76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ca27dc987c1ae5dda2f1ddae95e9c5a" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="de218069-9b18-4834-8a42-87538bc414b8"/>
+    <xsd:import namespace="346015c6-8778-4c47-bc51-98fcc3d8f0cc"/>
     <xsd:import namespace="478e6b58-aec7-4dc3-9f41-cb49fd51aa76"/>
-    <xsd:import namespace="809d16aa-08b5-4848-9f7f-cf9d38bd550c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -37174,16 +37372,20 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -37191,7 +37393,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1be84928-a867-465e-b2ee-3fc273237fa1" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de218069-9b18-4834-8a42-87538bc414b8" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -37204,65 +37406,72 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="68c1ad3d-08c0-4d35-9812-9f19ea7502b5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="68c1ad3d-08c0-4d35-9812-9f19ea7502b5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="478e6b58-aec7-4dc3-9f41-cb49fd51aa76" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="346015c6-8778-4c47-bc51-98fcc3d8f0cc" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{545ae808-c632-4321-bad5-521a3235ab9d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="809d16aa-08b5-4848-9f7f-cf9d38bd550c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="809d16aa-08b5-4848-9f7f-cf9d38bd550c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -37281,12 +37490,27 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="478e6b58-aec7-4dc3-9f41-cb49fd51aa76" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dbf5be48-0aeb-4a12-9716-fe49945c61e4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="346015c6-8778-4c47-bc51-98fcc3d8f0cc">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -37404,20 +37628,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1be84928-a867-465e-b2ee-3fc273237fa1"/>
     <ds:schemaRef ds:uri="478e6b58-aec7-4dc3-9f41-cb49fd51aa76"/>
+    <ds:schemaRef ds:uri="de218069-9b18-4834-8a42-87538bc414b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6940B286-A853-4F88-8F0D-996B9D99ACA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4888F49C-1AE0-4EBF-A654-04D8E1B2E686}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1be84928-a867-465e-b2ee-3fc273237fa1"/>
+    <ds:schemaRef ds:uri="de218069-9b18-4834-8a42-87538bc414b8"/>
+    <ds:schemaRef ds:uri="346015c6-8778-4c47-bc51-98fcc3d8f0cc"/>
     <ds:schemaRef ds:uri="478e6b58-aec7-4dc3-9f41-cb49fd51aa76"/>
-    <ds:schemaRef ds:uri="809d16aa-08b5-4848-9f7f-cf9d38bd550c"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
